--- a/biology/Histoire de la zoologie et de la botanique/Adolphus_Clemens_Good/Adolphus_Clemens_Good.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adolphus_Clemens_Good/Adolphus_Clemens_Good.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolphus Clemens Good est un missionnaire et un naturaliste américain, né le 19 décembre 1856 à West Mahoning en Pennsylvanie et mort le 13 décembre 1894 à Efoulan dans les possessions allemandes au Cameroun actuelle Région du Sud, Département de l'océan.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’Abram et Hanah née Irwin. Il fait ses études à Washington au Jefferson College et est diplômé en 1879. Il entre ensuite au Western Theological Seminary. Il est ordonné prêtre au sein de l’Église presbytérienne en 1882. Il part comme missionnaire dans le Congo français la même année. Il se marie avec Lydia Walker le 21 juin 1883. De 1882 à 1885, il est en poste à Baraka, de 1885 à 1892, à Kangwe, de 1892 à 1894, dans la région de Bulu située dans les possessions allemandes au Congo. 
 Le 11 juillet 1891, il déclare la naissance d'un fils de missionnaire suisse à Lambaréné.
